--- a/FollowUserDirectMessage/FollowData.xlsx
+++ b/FollowUserDirectMessage/FollowData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>lizstewart99__</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>anusuya_balakrishnan7</t>
+  </si>
+  <si>
+    <t>mike_hussain_mh</t>
   </si>
 </sst>
 </file>
@@ -399,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,9 +503,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
